--- a/Code/Results/Cases/Case_1_216/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_216/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7698617263102676</v>
+        <v>0.6695229441184551</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03855076255392387</v>
+        <v>0.0783750512527206</v>
       </c>
       <c r="E2">
-        <v>0.05551771780254988</v>
+        <v>0.06141686888949849</v>
       </c>
       <c r="F2">
-        <v>1.681792583521428</v>
+        <v>1.8225937690151</v>
       </c>
       <c r="G2">
-        <v>0.0008056475306206314</v>
+        <v>0.002509639840078791</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.747980869786474</v>
+        <v>1.314337654316148</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.633583169929238</v>
+        <v>1.078039710455187</v>
       </c>
       <c r="L2">
-        <v>0.4838543965028492</v>
+        <v>0.3048057343004587</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.301771874946425</v>
+        <v>2.384885438280094</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6767768768901021</v>
+        <v>0.648343806870173</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.04056891122219142</v>
+        <v>0.07896966201160449</v>
       </c>
       <c r="E3">
-        <v>0.05083227245534871</v>
+        <v>0.06002831827511734</v>
       </c>
       <c r="F3">
-        <v>1.539072376823555</v>
+        <v>1.795894908131046</v>
       </c>
       <c r="G3">
-        <v>0.0008129819119181363</v>
+        <v>0.002514287915409635</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.7329605469176386</v>
+        <v>1.316302648305587</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.274389545685437</v>
+        <v>0.9849463595662087</v>
       </c>
       <c r="L3">
-        <v>0.4227797193147893</v>
+        <v>0.2901764589762905</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.336684790520771</v>
+        <v>2.400058022474838</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6203283694171091</v>
+        <v>0.6356953306500372</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04184326030320307</v>
+        <v>0.07934965744824751</v>
       </c>
       <c r="E4">
-        <v>0.04801207362386783</v>
+        <v>0.05916249308003074</v>
       </c>
       <c r="F4">
-        <v>1.454672053814718</v>
+        <v>1.780555789770219</v>
       </c>
       <c r="G4">
-        <v>0.0008176151654196717</v>
+        <v>0.002517293043700939</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.7249187218945394</v>
+        <v>1.318029098011991</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.056868451179753</v>
+        <v>0.9283347762168432</v>
       </c>
       <c r="L4">
-        <v>0.3859211371294577</v>
+        <v>0.2813799228976279</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.359814521490037</v>
+        <v>2.410068766200837</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5974847622381958</v>
+        <v>0.6306306491133</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0423711462462899</v>
+        <v>0.07950825326515698</v>
       </c>
       <c r="E5">
-        <v>0.046874182965567</v>
+        <v>0.05880626684290213</v>
       </c>
       <c r="F5">
-        <v>1.421020542918015</v>
+        <v>1.774569258071097</v>
       </c>
       <c r="G5">
-        <v>0.0008195370834912446</v>
+        <v>0.002518555801429298</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.7219223291922816</v>
+        <v>1.318863307216866</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.968881610013938</v>
+        <v>0.9054018969729043</v>
       </c>
       <c r="L5">
-        <v>0.3710441965181701</v>
+        <v>0.2778418774154829</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.369648403795047</v>
+        <v>2.414322702786066</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5937007385543893</v>
+        <v>0.6297950864016855</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.04245931207007381</v>
+        <v>0.0795348140708878</v>
       </c>
       <c r="E6">
-        <v>0.04668584410405074</v>
+        <v>0.05874690882044753</v>
       </c>
       <c r="F6">
-        <v>1.415475618391511</v>
+        <v>1.77359113863136</v>
       </c>
       <c r="G6">
-        <v>0.0008198582922656418</v>
+        <v>0.002518767788749491</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.7214412827301047</v>
+        <v>1.319009716834557</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.954308061617553</v>
+        <v>0.9016021426400869</v>
       </c>
       <c r="L6">
-        <v>0.3685820381452203</v>
+        <v>0.2772571992795463</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.371305489575619</v>
+        <v>2.415039597491351</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6200196690463429</v>
+        <v>0.6356266631498499</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04185034516021702</v>
+        <v>0.07935178116931318</v>
       </c>
       <c r="E7">
-        <v>0.04799668524337442</v>
+        <v>0.05915770271879062</v>
       </c>
       <c r="F7">
-        <v>1.45421530101855</v>
+        <v>1.780473984271126</v>
       </c>
       <c r="G7">
-        <v>0.0008176409465910421</v>
+        <v>0.002517309918962431</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.7248771954686859</v>
+        <v>1.318039819489385</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.055679312991032</v>
+        <v>0.9280249428327636</v>
       </c>
       <c r="L7">
-        <v>0.3857199445429416</v>
+        <v>0.2813320190107618</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.359945513429878</v>
+        <v>2.410125430124808</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7376083634814563</v>
+        <v>0.6621467177052125</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03923914080145607</v>
+        <v>0.07857697856183066</v>
       </c>
       <c r="E8">
-        <v>0.05388858162095822</v>
+        <v>0.06094080773689292</v>
       </c>
       <c r="F8">
-        <v>1.631868348300031</v>
+        <v>1.813168743299599</v>
       </c>
       <c r="G8">
-        <v>0.0008081501867997327</v>
+        <v>0.002511211192152696</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.7425467061815425</v>
+        <v>1.31490722378711</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.509038903133217</v>
+        <v>1.045826711548642</v>
       </c>
       <c r="L8">
-        <v>0.4626513919310042</v>
+        <v>0.2997228922546782</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.313447579086848</v>
+        <v>2.389972627860274</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9746846038032402</v>
+        <v>0.7169663153418355</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03441189907202968</v>
+        <v>0.0771759276359596</v>
       </c>
       <c r="E9">
-        <v>0.06603919070057174</v>
+        <v>0.06433535032801529</v>
       </c>
       <c r="F9">
-        <v>2.009338685336658</v>
+        <v>1.885687654080968</v>
       </c>
       <c r="G9">
-        <v>0.0007905125473347748</v>
+        <v>0.002500445517988934</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.787358366577898</v>
+        <v>1.312894158389661</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3.427342843446695</v>
+        <v>1.281243909968794</v>
       </c>
       <c r="L9">
-        <v>0.6194970132746533</v>
+        <v>0.3372705772967777</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.236552087603869</v>
+        <v>2.355974874821285</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.15417212836843</v>
+        <v>0.75895270107182</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03106692215626072</v>
+        <v>0.07621880888587906</v>
       </c>
       <c r="E10">
-        <v>0.07556367947278098</v>
+        <v>0.06677142093856681</v>
       </c>
       <c r="F10">
-        <v>2.309733914543401</v>
+        <v>1.944155976801369</v>
       </c>
       <c r="G10">
-        <v>0.0007780603858408552</v>
+        <v>0.00249325579554283</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8276874704762491</v>
+        <v>1.313940704080956</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>4.128009479336527</v>
+        <v>1.456993138813004</v>
       </c>
       <c r="L10">
-        <v>0.7397519441610996</v>
+        <v>0.3657757861977302</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.190071230531004</v>
+        <v>2.334376087867795</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.23731389224065</v>
+        <v>0.7784241332295778</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.02959523414886345</v>
+        <v>0.0757990988583872</v>
       </c>
       <c r="E11">
-        <v>0.08008806944937064</v>
+        <v>0.06786804152660331</v>
       </c>
       <c r="F11">
-        <v>2.452745822327003</v>
+        <v>1.971896086988806</v>
       </c>
       <c r="G11">
-        <v>0.0007724836849070445</v>
+        <v>0.00249013959563935</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8479447312818067</v>
+        <v>1.314967039049662</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>4.45446637001811</v>
+        <v>1.537574497681931</v>
       </c>
       <c r="L11">
-        <v>0.7958932673661536</v>
+        <v>0.3789464795558217</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.171429290066925</v>
+        <v>2.325286951908197</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.269042954864346</v>
+        <v>0.7858507306826539</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.0290457700366975</v>
+        <v>0.07564242539537158</v>
       </c>
       <c r="E12">
-        <v>0.08183496301063009</v>
+        <v>0.06828171639558356</v>
       </c>
       <c r="F12">
-        <v>2.507942316892155</v>
+        <v>1.982565887360465</v>
       </c>
       <c r="G12">
-        <v>0.0007703825339829759</v>
+        <v>0.002488981650056333</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8559188041814139</v>
+        <v>1.315434940128526</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>4.579391793043271</v>
+        <v>1.568180952628609</v>
       </c>
       <c r="L12">
-        <v>0.8173912939473666</v>
+        <v>0.3839633544061201</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.164761206542607</v>
+        <v>2.321951271887812</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.262198113468344</v>
+        <v>0.7842489183926205</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02916374714555658</v>
+        <v>0.0756760671488852</v>
       </c>
       <c r="E13">
-        <v>0.0814571377261295</v>
+        <v>0.06819269375789538</v>
       </c>
       <c r="F13">
-        <v>2.496006295767131</v>
+        <v>1.980260591815238</v>
       </c>
       <c r="G13">
-        <v>0.0007708346163734068</v>
+        <v>0.002489230053882575</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8541874823269779</v>
+        <v>1.315330642573365</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>4.552425581628881</v>
+        <v>1.561585192940584</v>
       </c>
       <c r="L13">
-        <v>0.8127501541615061</v>
+        <v>0.3828815697790162</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.166179360047551</v>
+        <v>2.32266494302641</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.239919163416943</v>
+        <v>0.7790340593068379</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.02954986834030215</v>
+        <v>0.07578616387803905</v>
       </c>
       <c r="E14">
-        <v>0.08023107611572655</v>
+        <v>0.06790210629486992</v>
       </c>
       <c r="F14">
-        <v>2.457265231995791</v>
+        <v>1.972770581258203</v>
       </c>
       <c r="G14">
-        <v>0.0007723106212844294</v>
+        <v>0.002490043888761135</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8485945160269353</v>
+        <v>1.315003944538766</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>4.464716751821868</v>
+        <v>1.540090657871929</v>
       </c>
       <c r="L14">
-        <v>0.7976569469874164</v>
+        <v>0.3793586303886798</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.170872669777793</v>
+        <v>2.325010393764629</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.22630553968574</v>
+        <v>0.7758467269399887</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.02978741976794375</v>
+        <v>0.07585389600633707</v>
       </c>
       <c r="E15">
-        <v>0.07948464898230867</v>
+        <v>0.06772390793510574</v>
       </c>
       <c r="F15">
-        <v>2.433674779119684</v>
+        <v>1.968204277943727</v>
       </c>
       <c r="G15">
-        <v>0.0007732160372723174</v>
+        <v>0.002490545259729022</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8452090239281986</v>
+        <v>1.31481415701704</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>4.411168409283221</v>
+        <v>1.526936655392262</v>
       </c>
       <c r="L15">
-        <v>0.7884439928331233</v>
+        <v>0.3772045640701833</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.173799397370985</v>
+        <v>2.326460886783821</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.148771181446904</v>
+        <v>0.7576876536615771</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.0311641587586724</v>
+        <v>0.0762465540871391</v>
       </c>
       <c r="E16">
-        <v>0.07527235354394612</v>
+        <v>0.06669952761259523</v>
       </c>
       <c r="F16">
-        <v>2.300526214935658</v>
+        <v>1.942366165433327</v>
       </c>
       <c r="G16">
-        <v>0.000778426437584135</v>
+        <v>0.002493462544442751</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8264044177210721</v>
+        <v>1.313884713787061</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>4.106846102951863</v>
+        <v>1.451739775110639</v>
       </c>
       <c r="L16">
-        <v>0.7361145375292608</v>
+        <v>0.3649191588777683</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.19134248199434</v>
+        <v>2.334984925687081</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.101609269246353</v>
+        <v>0.7466426515769911</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03202196808166669</v>
+        <v>0.07649145914987354</v>
       </c>
       <c r="E17">
-        <v>0.07274136670699605</v>
+        <v>0.06606819268340836</v>
       </c>
       <c r="F17">
-        <v>2.220558428960814</v>
+        <v>1.926808613582324</v>
       </c>
       <c r="G17">
-        <v>0.0007816439889527893</v>
+        <v>0.00249529167649694</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8153771047953242</v>
+        <v>1.313455551727287</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>3.922262014008368</v>
+        <v>1.405771640017463</v>
       </c>
       <c r="L17">
-        <v>0.7044017334401929</v>
+        <v>0.3574346969431588</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.202766758425355</v>
+        <v>2.340402936887543</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.074621416261664</v>
+        <v>0.7403248513349183</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03252001510379277</v>
+        <v>0.07663379834354522</v>
       </c>
       <c r="E18">
-        <v>0.07130323930692839</v>
+        <v>0.06570397313928922</v>
       </c>
       <c r="F18">
-        <v>2.175153397409687</v>
+        <v>1.917967810196075</v>
       </c>
       <c r="G18">
-        <v>0.0007835030407075116</v>
+        <v>0.002496358288708555</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8092125324947261</v>
+        <v>1.313260494196662</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>3.816807968333478</v>
+        <v>1.379391416503381</v>
       </c>
       <c r="L18">
-        <v>0.6862944950654395</v>
+        <v>0.3531489804659884</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.209571166366004</v>
+        <v>2.343588515414012</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.065506687887165</v>
+        <v>0.7381917704190357</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03268942717680279</v>
+        <v>0.07668224533306311</v>
       </c>
       <c r="E19">
-        <v>0.07081917166694751</v>
+        <v>0.06558046490086511</v>
       </c>
       <c r="F19">
-        <v>2.1598778043317</v>
+        <v>1.914992899509357</v>
       </c>
       <c r="G19">
-        <v>0.0007841339843155382</v>
+        <v>0.002496721926766754</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8071550817920539</v>
+        <v>1.313203341468999</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>3.781220118832891</v>
+        <v>1.370469699142518</v>
       </c>
       <c r="L19">
-        <v>0.6801856434239824</v>
+        <v>0.3517011946257043</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.211914220894627</v>
+        <v>2.344678987555625</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.106615196774385</v>
+        <v>0.7478147910976816</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03193016638904655</v>
+        <v>0.07646523575962672</v>
       </c>
       <c r="E20">
-        <v>0.07300892898311773</v>
+        <v>0.06613551191053979</v>
       </c>
       <c r="F20">
-        <v>2.229009170573335</v>
+        <v>1.928453610230619</v>
       </c>
       <c r="G20">
-        <v>0.0007813006195214189</v>
+        <v>0.002495095458016709</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8165323589511502</v>
+        <v>1.313495876323927</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3.941836097886437</v>
+        <v>1.410658867277732</v>
       </c>
       <c r="L20">
-        <v>0.7077636171831614</v>
+        <v>0.3582294478498227</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.201526245795804</v>
+        <v>2.339819007786815</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.246456120684087</v>
+        <v>0.7805643482736571</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.02943623692124842</v>
+        <v>0.07575376437304637</v>
       </c>
       <c r="E21">
-        <v>0.08059023546444166</v>
+        <v>0.06798750150178279</v>
       </c>
       <c r="F21">
-        <v>2.468615089262002</v>
+        <v>1.974966087419261</v>
       </c>
       <c r="G21">
-        <v>0.0007718768116763061</v>
+        <v>0.002489804246857105</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8502288397672828</v>
+        <v>1.315097751837271</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>4.490441937036621</v>
+        <v>1.546401616654066</v>
       </c>
       <c r="L21">
-        <v>0.8020834421560608</v>
+        <v>0.3803926034372864</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.169483245585667</v>
+        <v>2.324318593915507</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.33929527949806</v>
+        <v>0.802277988144624</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02785234391463121</v>
+        <v>0.07530196197607708</v>
       </c>
       <c r="E22">
-        <v>0.08574441438103975</v>
+        <v>0.0691886405757689</v>
       </c>
       <c r="F22">
-        <v>2.631348740950614</v>
+        <v>2.006328160499606</v>
       </c>
       <c r="G22">
-        <v>0.0007657786378542086</v>
+        <v>0.002486474847677421</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8740334641584653</v>
+        <v>1.316606661028359</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>4.85669092716364</v>
+        <v>1.635654390638422</v>
       </c>
       <c r="L22">
-        <v>0.8651346864072309</v>
+        <v>0.3950490561368554</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.150838842095524</v>
+        <v>2.314807212336547</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.289602122871798</v>
+        <v>0.7906607344553152</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.02869324209194613</v>
+        <v>0.07554188900713488</v>
       </c>
       <c r="E23">
-        <v>0.08297305226087914</v>
+        <v>0.06854839214622821</v>
       </c>
       <c r="F23">
-        <v>2.543887465613494</v>
+        <v>1.989501165729934</v>
       </c>
       <c r="G23">
-        <v>0.0007690285057380001</v>
+        <v>0.002488240071936142</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8611552793538522</v>
+        <v>1.315759013862944</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>4.660442110117117</v>
+        <v>1.58796898473048</v>
       </c>
       <c r="L23">
-        <v>0.8313427361257766</v>
+        <v>0.3872108839599946</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.160568154817625</v>
+        <v>2.319826871755083</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.10435162625194</v>
+        <v>0.747284766757673</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03197165477861219</v>
+        <v>0.07647708655710783</v>
       </c>
       <c r="E24">
-        <v>0.07288791166344133</v>
+        <v>0.06610508080890121</v>
       </c>
       <c r="F24">
-        <v>2.225186825746519</v>
+        <v>1.927709585106072</v>
       </c>
       <c r="G24">
-        <v>0.0007814558279176653</v>
+        <v>0.002495184121505067</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8160095250074448</v>
+        <v>1.313477484622688</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3.932984595034554</v>
+        <v>1.40844920406505</v>
       </c>
       <c r="L24">
-        <v>0.7062433229527301</v>
+        <v>0.3578700874011815</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.202086347427709</v>
+        <v>2.340082781948993</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9097223492076409</v>
+        <v>0.7018354456513123</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03568426049116535</v>
+        <v>0.07754227193610674</v>
       </c>
       <c r="E25">
-        <v>0.06266595895850458</v>
+        <v>0.06342752255451778</v>
       </c>
       <c r="F25">
-        <v>1.903590133904373</v>
+        <v>1.865162919269437</v>
       </c>
       <c r="G25">
-        <v>0.0007951882878771448</v>
+        <v>0.002503230933536469</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7740295554874947</v>
+        <v>1.312995808280654</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3.174993117611734</v>
+        <v>1.217075025171141</v>
       </c>
       <c r="L25">
-        <v>0.5762917567337098</v>
+        <v>0.3269526318619143</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.255698107334737</v>
+        <v>2.364579682216572</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_216/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_216/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6695229441184551</v>
+        <v>0.7698617263103813</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0783750512527206</v>
+        <v>0.03855076255391854</v>
       </c>
       <c r="E2">
-        <v>0.06141686888949849</v>
+        <v>0.05551771780254988</v>
       </c>
       <c r="F2">
-        <v>1.8225937690151</v>
+        <v>1.681792583521428</v>
       </c>
       <c r="G2">
-        <v>0.002509639840078791</v>
+        <v>0.0008056475306653136</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.314337654316148</v>
+        <v>0.7479808697864669</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.078039710455187</v>
+        <v>2.633583169929267</v>
       </c>
       <c r="L2">
-        <v>0.3048057343004587</v>
+        <v>0.4838543965027924</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.384885438280094</v>
+        <v>1.301771874946411</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.648343806870173</v>
+        <v>0.6767768768901021</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.07896966201160449</v>
+        <v>0.04056891122218875</v>
       </c>
       <c r="E3">
-        <v>0.06002831827511734</v>
+        <v>0.05083227245535049</v>
       </c>
       <c r="F3">
-        <v>1.795894908131046</v>
+        <v>1.539072376823555</v>
       </c>
       <c r="G3">
-        <v>0.002514287915409635</v>
+        <v>0.0008129819119750889</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.316302648305587</v>
+        <v>0.7329605469176457</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9849463595662087</v>
+        <v>2.27438954568558</v>
       </c>
       <c r="L3">
-        <v>0.2901764589762905</v>
+        <v>0.4227797193148319</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.400058022474838</v>
+        <v>1.336684790520756</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6356953306500372</v>
+        <v>0.6203283694171091</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.07934965744824751</v>
+        <v>0.04184326030328211</v>
       </c>
       <c r="E4">
-        <v>0.05916249308003074</v>
+        <v>0.04801207362386783</v>
       </c>
       <c r="F4">
-        <v>1.780555789770219</v>
+        <v>1.454672053814718</v>
       </c>
       <c r="G4">
-        <v>0.002517293043700939</v>
+        <v>0.0008176151654484876</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.318029098011991</v>
+        <v>0.7249187218945536</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9283347762168432</v>
+        <v>2.056868451179838</v>
       </c>
       <c r="L4">
-        <v>0.2813799228976279</v>
+        <v>0.3859211371293725</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.410068766200837</v>
+        <v>1.35981452149003</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6306306491133</v>
+        <v>0.5974847622380253</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.07950825326515698</v>
+        <v>0.04237114624628457</v>
       </c>
       <c r="E5">
-        <v>0.05880626684290213</v>
+        <v>0.04687418296555101</v>
       </c>
       <c r="F5">
-        <v>1.774569258071097</v>
+        <v>1.421020542918029</v>
       </c>
       <c r="G5">
-        <v>0.002518555801429298</v>
+        <v>0.0008195370834612667</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.318863307216866</v>
+        <v>0.7219223291922674</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9054018969729043</v>
+        <v>1.968881610013909</v>
       </c>
       <c r="L5">
-        <v>0.2778418774154829</v>
+        <v>0.3710441965181701</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.414322702786066</v>
+        <v>1.369648403795118</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6297950864016855</v>
+        <v>0.5937007385543893</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0795348140708878</v>
+        <v>0.04245931207015907</v>
       </c>
       <c r="E6">
-        <v>0.05874690882044753</v>
+        <v>0.04668584410406851</v>
       </c>
       <c r="F6">
-        <v>1.77359113863136</v>
+        <v>1.415475618391511</v>
       </c>
       <c r="G6">
-        <v>0.002518767788749491</v>
+        <v>0.0008198582922657529</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.319009716834557</v>
+        <v>0.7214412827301118</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9016021426400869</v>
+        <v>1.954308061617525</v>
       </c>
       <c r="L6">
-        <v>0.2772571992795463</v>
+        <v>0.3685820381452061</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.415039597491351</v>
+        <v>1.371305489575612</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6356266631498499</v>
+        <v>0.6200196690465134</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.07935178116931318</v>
+        <v>0.04185034516030584</v>
       </c>
       <c r="E7">
-        <v>0.05915770271879062</v>
+        <v>0.04799668524337619</v>
       </c>
       <c r="F7">
-        <v>1.780473984271126</v>
+        <v>1.454215301018536</v>
       </c>
       <c r="G7">
-        <v>0.002517309918962431</v>
+        <v>0.0008176409466325536</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.318039819489385</v>
+        <v>0.7248771954686575</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9280249428327636</v>
+        <v>2.055679312991003</v>
       </c>
       <c r="L7">
-        <v>0.2813320190107618</v>
+        <v>0.3857199445428705</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.410125430124808</v>
+        <v>1.359945513429814</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6621467177052125</v>
+        <v>0.7376083634814279</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.07857697856183066</v>
+        <v>0.03923914080135482</v>
       </c>
       <c r="E8">
-        <v>0.06094080773689292</v>
+        <v>0.05388858162096177</v>
       </c>
       <c r="F8">
-        <v>1.813168743299599</v>
+        <v>1.631868348300046</v>
       </c>
       <c r="G8">
-        <v>0.002511211192152696</v>
+        <v>0.0008081501867529188</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.31490722378711</v>
+        <v>0.7425467061815567</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.045826711548642</v>
+        <v>2.509038903133188</v>
       </c>
       <c r="L8">
-        <v>0.2997228922546782</v>
+        <v>0.4626513919310469</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.389972627860274</v>
+        <v>1.313447579086869</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7169663153418355</v>
+        <v>0.9746846038032118</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0771759276359596</v>
+        <v>0.03441189907192133</v>
       </c>
       <c r="E9">
-        <v>0.06433535032801529</v>
+        <v>0.06603919070057707</v>
       </c>
       <c r="F9">
-        <v>1.885687654080968</v>
+        <v>2.00933868533663</v>
       </c>
       <c r="G9">
-        <v>0.002500445517988934</v>
+        <v>0.0007905125472773947</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.312894158389661</v>
+        <v>0.7873583665779051</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.281243909968794</v>
+        <v>3.427342843446638</v>
       </c>
       <c r="L9">
-        <v>0.3372705772967777</v>
+        <v>0.6194970132747244</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.355974874821285</v>
+        <v>1.236552087603883</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.75895270107182</v>
+        <v>1.154172128368373</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.07621880888587906</v>
+        <v>0.03106692215624385</v>
       </c>
       <c r="E10">
-        <v>0.06677142093856681</v>
+        <v>0.07556367947276499</v>
       </c>
       <c r="F10">
-        <v>1.944155976801369</v>
+        <v>2.309733914543415</v>
       </c>
       <c r="G10">
-        <v>0.00249325579554283</v>
+        <v>0.0007780603858965958</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.313940704080956</v>
+        <v>0.8276874704762491</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.456993138813004</v>
+        <v>4.12800947933664</v>
       </c>
       <c r="L10">
-        <v>0.3657757861977302</v>
+        <v>0.7397519441611848</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.334376087867795</v>
+        <v>1.190071230531046</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7784241332295778</v>
+        <v>1.237313892240621</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0757990988583872</v>
+        <v>0.02959523414886345</v>
       </c>
       <c r="E11">
-        <v>0.06786804152660331</v>
+        <v>0.08008806944936708</v>
       </c>
       <c r="F11">
-        <v>1.971896086988806</v>
+        <v>2.452745822327003</v>
       </c>
       <c r="G11">
-        <v>0.00249013959563935</v>
+        <v>0.0007724836848506964</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.314967039049662</v>
+        <v>0.8479447312818067</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.537574497681931</v>
+        <v>4.454466370018167</v>
       </c>
       <c r="L11">
-        <v>0.3789464795558217</v>
+        <v>0.7958932673660968</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.325286951908197</v>
+        <v>1.171429290066939</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7858507306826539</v>
+        <v>1.269042954864403</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.07564242539537158</v>
+        <v>0.0290457700365776</v>
       </c>
       <c r="E12">
-        <v>0.06828171639558356</v>
+        <v>0.08183496301063364</v>
       </c>
       <c r="F12">
-        <v>1.982565887360465</v>
+        <v>2.507942316892155</v>
       </c>
       <c r="G12">
-        <v>0.002488981650056333</v>
+        <v>0.0007703825339820665</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.315434940128526</v>
+        <v>0.855918804181421</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.568180952628609</v>
+        <v>4.579391793043271</v>
       </c>
       <c r="L12">
-        <v>0.3839633544061201</v>
+        <v>0.8173912939474235</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.321951271887812</v>
+        <v>1.164761206542607</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7842489183926205</v>
+        <v>1.262198113468401</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0756760671488852</v>
+        <v>0.0291637471454429</v>
       </c>
       <c r="E13">
-        <v>0.06819269375789538</v>
+        <v>0.08145713772612595</v>
       </c>
       <c r="F13">
-        <v>1.980260591815238</v>
+        <v>2.496006295767131</v>
       </c>
       <c r="G13">
-        <v>0.002489230053882575</v>
+        <v>0.0007708346163161215</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.315330642573365</v>
+        <v>0.8541874823269779</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.561585192940584</v>
+        <v>4.552425581628768</v>
       </c>
       <c r="L13">
-        <v>0.3828815697790162</v>
+        <v>0.8127501541615629</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.32266494302641</v>
+        <v>1.166179360047579</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7790340593068379</v>
+        <v>1.239919163417113</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.07578616387803905</v>
+        <v>0.0295498683404114</v>
       </c>
       <c r="E14">
-        <v>0.06790210629486992</v>
+        <v>0.08023107611572655</v>
       </c>
       <c r="F14">
-        <v>1.972770581258203</v>
+        <v>2.457265231995805</v>
       </c>
       <c r="G14">
-        <v>0.002490043888761135</v>
+        <v>0.0007723106213402232</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.315003944538766</v>
+        <v>0.848594516026921</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.540090657871929</v>
+        <v>4.464716751821925</v>
       </c>
       <c r="L14">
-        <v>0.3793586303886798</v>
+        <v>0.7976569469874448</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.325010393764629</v>
+        <v>1.170872669777765</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7758467269399887</v>
+        <v>1.226305539685853</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.07585389600633707</v>
+        <v>0.02978741976794552</v>
       </c>
       <c r="E15">
-        <v>0.06772390793510574</v>
+        <v>0.07948464898229446</v>
       </c>
       <c r="F15">
-        <v>1.968204277943727</v>
+        <v>2.433674779119684</v>
       </c>
       <c r="G15">
-        <v>0.002490545259729022</v>
+        <v>0.0007732160371590746</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.31481415701704</v>
+        <v>0.8452090239281986</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.526936655392262</v>
+        <v>4.411168409283221</v>
       </c>
       <c r="L15">
-        <v>0.3772045640701833</v>
+        <v>0.7884439928330664</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.326460886783821</v>
+        <v>1.173799397370985</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7576876536615771</v>
+        <v>1.148771181446875</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.0762465540871391</v>
+        <v>0.03116415875855605</v>
       </c>
       <c r="E16">
-        <v>0.06669952761259523</v>
+        <v>0.07527235354395856</v>
       </c>
       <c r="F16">
-        <v>1.942366165433327</v>
+        <v>2.300526214935644</v>
       </c>
       <c r="G16">
-        <v>0.002493462544442751</v>
+        <v>0.0007784264375258221</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.313884713787061</v>
+        <v>0.8264044177210579</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.451739775110639</v>
+        <v>4.10684610295192</v>
       </c>
       <c r="L16">
-        <v>0.3649191588777683</v>
+        <v>0.7361145375292892</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.334984925687081</v>
+        <v>1.191342481994326</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7466426515769911</v>
+        <v>1.101609269246268</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.07649145914987354</v>
+        <v>0.03202196808144819</v>
       </c>
       <c r="E17">
-        <v>0.06606819268340836</v>
+        <v>0.07274136670697651</v>
       </c>
       <c r="F17">
-        <v>1.926808613582324</v>
+        <v>2.220558428960828</v>
       </c>
       <c r="G17">
-        <v>0.00249529167649694</v>
+        <v>0.0007816439890066528</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.313455551727287</v>
+        <v>0.8153771047953384</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.405771640017463</v>
+        <v>3.922262014008311</v>
       </c>
       <c r="L17">
-        <v>0.3574346969431588</v>
+        <v>0.7044017334401644</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.340402936887543</v>
+        <v>1.202766758425355</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7403248513349183</v>
+        <v>1.074621416261635</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.07663379834354522</v>
+        <v>0.03252001510367641</v>
       </c>
       <c r="E18">
-        <v>0.06570397313928922</v>
+        <v>0.07130323930692306</v>
       </c>
       <c r="F18">
-        <v>1.917967810196075</v>
+        <v>2.175153397409701</v>
       </c>
       <c r="G18">
-        <v>0.002496358288708555</v>
+        <v>0.0007835030407064864</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.313260494196662</v>
+        <v>0.8092125324947474</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.379391416503381</v>
+        <v>3.816807968333592</v>
       </c>
       <c r="L18">
-        <v>0.3531489804659884</v>
+        <v>0.6862944950655248</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.343588515414012</v>
+        <v>1.209571166366047</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7381917704190357</v>
+        <v>1.065506687887051</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.07668224533306311</v>
+        <v>0.03268942717670065</v>
       </c>
       <c r="E19">
-        <v>0.06558046490086511</v>
+        <v>0.07081917166694396</v>
       </c>
       <c r="F19">
-        <v>1.914992899509357</v>
+        <v>2.159877804331686</v>
       </c>
       <c r="G19">
-        <v>0.002496721926766754</v>
+        <v>0.0007841339842589054</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.313203341468999</v>
+        <v>0.8071550817920752</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.370469699142518</v>
+        <v>3.781220118832778</v>
       </c>
       <c r="L19">
-        <v>0.3517011946257043</v>
+        <v>0.6801856434240676</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.344678987555625</v>
+        <v>1.211914220894656</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7478147910976816</v>
+        <v>1.106615196774385</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.07646523575962672</v>
+        <v>0.03193016638870905</v>
       </c>
       <c r="E20">
-        <v>0.06613551191053979</v>
+        <v>0.07300892898311595</v>
       </c>
       <c r="F20">
-        <v>1.928453610230619</v>
+        <v>2.229009170573335</v>
       </c>
       <c r="G20">
-        <v>0.002495095458016709</v>
+        <v>0.0007813006195201766</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.313495876323927</v>
+        <v>0.8165323589511502</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.410658867277732</v>
+        <v>3.941836097886437</v>
       </c>
       <c r="L20">
-        <v>0.3582294478498227</v>
+        <v>0.7077636171829909</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.339819007786815</v>
+        <v>1.20152624579579</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7805643482736571</v>
+        <v>1.246456120684115</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.07575376437304637</v>
+        <v>0.02943623692124486</v>
       </c>
       <c r="E21">
-        <v>0.06798750150178279</v>
+        <v>0.08059023546443989</v>
       </c>
       <c r="F21">
-        <v>1.974966087419261</v>
+        <v>2.468615089262002</v>
       </c>
       <c r="G21">
-        <v>0.002489804246857105</v>
+        <v>0.0007718768116188324</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.315097751837271</v>
+        <v>0.8502288397672828</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.546401616654066</v>
+        <v>4.490441937036792</v>
       </c>
       <c r="L21">
-        <v>0.3803926034372864</v>
+        <v>0.8020834421560608</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.324318593915507</v>
+        <v>1.169483245585667</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.802277988144624</v>
+        <v>1.339295279498117</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.07530196197607708</v>
+        <v>0.02785234391463121</v>
       </c>
       <c r="E22">
-        <v>0.0691886405757689</v>
+        <v>0.08574441438103442</v>
       </c>
       <c r="F22">
-        <v>2.006328160499606</v>
+        <v>2.631348740950614</v>
       </c>
       <c r="G22">
-        <v>0.002486474847677421</v>
+        <v>0.0007657786379121989</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.316606661028359</v>
+        <v>0.8740334641584582</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.635654390638422</v>
+        <v>4.856690927163697</v>
       </c>
       <c r="L22">
-        <v>0.3950490561368554</v>
+        <v>0.8651346864072593</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.314807212336547</v>
+        <v>1.150838842095496</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7906607344553152</v>
+        <v>1.289602122871742</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.07554188900713488</v>
+        <v>0.02869324209183155</v>
       </c>
       <c r="E23">
-        <v>0.06854839214622821</v>
+        <v>0.08297305226087737</v>
       </c>
       <c r="F23">
-        <v>1.989501165729934</v>
+        <v>2.543887465613523</v>
       </c>
       <c r="G23">
-        <v>0.002488240071936142</v>
+        <v>0.0007690285057941774</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.315759013862944</v>
+        <v>0.8611552793538522</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.58796898473048</v>
+        <v>4.66044211011706</v>
       </c>
       <c r="L23">
-        <v>0.3872108839599946</v>
+        <v>0.8313427361257482</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.319826871755083</v>
+        <v>1.160568154817625</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.747284766757673</v>
+        <v>1.104351626251969</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.07647708655710783</v>
+        <v>0.03197165477861486</v>
       </c>
       <c r="E24">
-        <v>0.06610508080890121</v>
+        <v>0.07288791166344133</v>
       </c>
       <c r="F24">
-        <v>1.927709585106072</v>
+        <v>2.225186825746519</v>
       </c>
       <c r="G24">
-        <v>0.002495184121505067</v>
+        <v>0.0007814558278606492</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.313477484622688</v>
+        <v>0.8160095250074377</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.40844920406505</v>
+        <v>3.932984595034554</v>
       </c>
       <c r="L24">
-        <v>0.3578700874011815</v>
+        <v>0.7062433229527016</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.340082781948993</v>
+        <v>1.202086347427709</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7018354456513123</v>
+        <v>0.9097223492076978</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.07754227193610674</v>
+        <v>0.0356842604911396</v>
       </c>
       <c r="E25">
-        <v>0.06342752255451778</v>
+        <v>0.06266595895848681</v>
       </c>
       <c r="F25">
-        <v>1.865162919269437</v>
+        <v>1.903590133904359</v>
       </c>
       <c r="G25">
-        <v>0.002503230933536469</v>
+        <v>0.0007951882877687838</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.312995808280654</v>
+        <v>0.7740295554875019</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.217075025171141</v>
+        <v>3.174993117611734</v>
       </c>
       <c r="L25">
-        <v>0.3269526318619143</v>
+        <v>0.5762917567336672</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.364579682216572</v>
+        <v>1.25569810733468</v>
       </c>
       <c r="O25">
         <v>0</v>
